--- a/biology/Zoologie/Boophis_lilianae/Boophis_lilianae.xlsx
+++ b/biology/Zoologie/Boophis_lilianae/Boophis_lilianae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis lilianae est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis lilianae est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 900 et 1 000 m d'altitude dans les environs de Tolongoina dans la province de Fianarantsoa[1],[2]e.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 900 et 1 000 m d'altitude dans les environs de Tolongoina dans la province de Fianarantsoa,e.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis lilianae mesure environ 20 mm. Son dos est vert jaune translucide, légèrement transparent au niveau du museau. Une fine ligne longitudinale de couleur rouge est présente. Son ventre est blanc avec des reflets turquoise[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis lilianae mesure environ 20 mm. Son dos est vert jaune translucide, légèrement transparent au niveau du museau. Une fine ligne longitudinale de couleur rouge est présente. Son ventre est blanc avec des reflets turquoise.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, lilianae, lui a été donné en référence à Liliane Raharivololoniaina qui a capturé les deux spécimens types. Le e de Liliane a été omis pour une meilleure prononciation[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, lilianae, lui a été donné en référence à Liliane Raharivololoniaina qui a capturé les deux spécimens types. Le e de Liliane a été omis pour une meilleure prononciation.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Köhler, Glaw &amp; Vences, 2008 : Two additional treefrogs of the Boophis ulftunni species group (Anura: Mantellidae) discovered in rainforests of northern and south-eastern Madagascar. Zootaxa, no 1814, p. 37-48 (texte intégral).</t>
         </is>
